--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam28-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam28-Itga4.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.181571</v>
+        <v>0.4793446666666667</v>
       </c>
       <c r="H2">
-        <v>0.544713</v>
+        <v>1.438034</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,34 +555,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N2">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O2">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P2">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q2">
-        <v>0.01757583070533333</v>
+        <v>0.5297352954053334</v>
       </c>
       <c r="R2">
-        <v>0.158182476348</v>
+        <v>4.767617658648</v>
       </c>
       <c r="S2">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="T2">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.181571</v>
+        <v>0.4793446666666667</v>
       </c>
       <c r="H3">
-        <v>0.544713</v>
+        <v>1.438034</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.133268</v>
       </c>
       <c r="O3">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P3">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q3">
-        <v>0.008065868009333333</v>
+        <v>0.02129376834577778</v>
       </c>
       <c r="R3">
-        <v>0.07259281208399999</v>
+        <v>0.191643915112</v>
       </c>
       <c r="S3">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="T3">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.181571</v>
+        <v>0.4793446666666667</v>
       </c>
       <c r="H4">
-        <v>0.544713</v>
+        <v>1.438034</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N4">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O4">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P4">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q4">
-        <v>11.068113869358</v>
+        <v>27.10462742285711</v>
       </c>
       <c r="R4">
-        <v>99.61302482422201</v>
+        <v>243.941646805714</v>
       </c>
       <c r="S4">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="T4">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.181571</v>
+        <v>0.4793446666666667</v>
       </c>
       <c r="H5">
-        <v>0.544713</v>
+        <v>1.438034</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N5">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O5">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P5">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q5">
-        <v>0.2955971643343334</v>
+        <v>0.385598750862</v>
       </c>
       <c r="R5">
-        <v>2.660374479009</v>
+        <v>3.470388757757999</v>
       </c>
       <c r="S5">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="T5">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.181571</v>
+        <v>0.4793446666666667</v>
       </c>
       <c r="H6">
-        <v>0.544713</v>
+        <v>1.438034</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N6">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O6">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P6">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q6">
-        <v>11.51082197622067</v>
+        <v>37.43159041416889</v>
       </c>
       <c r="R6">
-        <v>103.597397785986</v>
+        <v>336.88431372752</v>
       </c>
       <c r="S6">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="T6">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.181571</v>
+        <v>0.4793446666666667</v>
       </c>
       <c r="H7">
-        <v>0.544713</v>
+        <v>1.438034</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N7">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O7">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P7">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q7">
-        <v>14.929429991008</v>
+        <v>11.17996321690733</v>
       </c>
       <c r="R7">
-        <v>134.364869919072</v>
+        <v>100.619668952166</v>
       </c>
       <c r="S7">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="T7">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
     </row>
   </sheetData>
